--- a/Excel/012_Regra+dos+10+últimos+itens.xlsx
+++ b/Excel/012_Regra+dos+10+últimos+itens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5519FB4F-0DA7-4F87-BA15-9C7084B49AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E92624E-FF05-454D-BDA3-680C5D4534B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="894" activeTab="1" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
+    <workbookView xWindow="1817" yWindow="1817" windowWidth="16114" windowHeight="13157" tabRatio="894" activeTab="1" xr2:uid="{193F081A-02DB-4BD2-87B0-9E4D48AC40BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="40">
   <si>
     <t>UF</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>*Página Inicial &gt; Formatação Condicional &gt; Regra de Primeiros/Últimos &gt; 10 Últimos Itens</t>
   </si>
 </sst>
 </file>
@@ -301,17 +304,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -324,11 +317,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -372,10 +365,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de Tabela Dinâmica 1" table="0" count="1" xr9:uid="{0899B25B-2D16-4A37-8FB0-0893882EC093}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Estilo de Tabela Dinâmica 2" table="0" count="1" xr9:uid="{C8D3D828-D729-4C27-A447-A441ABC56B08}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1738,10 +1731,10 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G34">
-    <cfRule type="top10" dxfId="4" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H34">
-    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="4"/>
+    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1750,10 +1743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDEF0D7-B775-4643-BF43-1CCD16C3E508}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1825,7 +1818,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="10">
-        <f>H2/$I$1</f>
+        <f t="shared" ref="I2:I34" si="0">H2/$I$1</f>
         <v>1.4857881136950904E-2</v>
       </c>
     </row>
@@ -1855,7 +1848,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="10">
-        <f>H3/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.4857881136950904E-2</v>
       </c>
     </row>
@@ -1885,7 +1878,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="10">
-        <f>H4/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.4857881136950904E-2</v>
       </c>
     </row>
@@ -1915,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="10">
-        <f>H5/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.2919896640826873E-2</v>
       </c>
     </row>
@@ -1945,7 +1938,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="10">
-        <f>H6/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.2919896640826873E-2</v>
       </c>
     </row>
@@ -1975,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="I7" s="10">
-        <f>H7/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.2919896640826873E-2</v>
       </c>
     </row>
@@ -2005,7 +1998,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="10">
-        <f>H8/$I$1</f>
+        <f t="shared" si="0"/>
         <v>3.2299741602067181E-2</v>
       </c>
     </row>
@@ -2035,7 +2028,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="10">
-        <f>H9/$I$1</f>
+        <f t="shared" si="0"/>
         <v>3.2299741602067181E-2</v>
       </c>
     </row>
@@ -2065,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="10">
-        <f>H10/$I$1</f>
+        <f t="shared" si="0"/>
         <v>3.2299741602067181E-2</v>
       </c>
     </row>
@@ -2095,7 +2088,7 @@
         <v>100</v>
       </c>
       <c r="I11" s="10">
-        <f>H11/$I$1</f>
+        <f t="shared" si="0"/>
         <v>6.4599483204134361E-2</v>
       </c>
     </row>
@@ -2125,7 +2118,7 @@
         <v>100</v>
       </c>
       <c r="I12" s="10">
-        <f>H12/$I$1</f>
+        <f t="shared" si="0"/>
         <v>6.4599483204134361E-2</v>
       </c>
     </row>
@@ -2155,7 +2148,7 @@
         <v>100</v>
       </c>
       <c r="I13" s="10">
-        <f>H13/$I$1</f>
+        <f t="shared" si="0"/>
         <v>6.4599483204134361E-2</v>
       </c>
     </row>
@@ -2185,7 +2178,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="10">
-        <f>H14/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.0671834625322998E-2</v>
       </c>
     </row>
@@ -2215,7 +2208,7 @@
         <v>32</v>
       </c>
       <c r="I15" s="10">
-        <f>H15/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.0671834625322998E-2</v>
       </c>
     </row>
@@ -2245,7 +2238,7 @@
         <v>32</v>
       </c>
       <c r="I16" s="10">
-        <f>H16/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.0671834625322998E-2</v>
       </c>
     </row>
@@ -2275,7 +2268,7 @@
         <v>98</v>
       </c>
       <c r="I17" s="10">
-        <f>H17/$I$1</f>
+        <f t="shared" si="0"/>
         <v>6.3307493540051676E-2</v>
       </c>
     </row>
@@ -2305,7 +2298,7 @@
         <v>98</v>
       </c>
       <c r="I18" s="10">
-        <f>H18/$I$1</f>
+        <f t="shared" si="0"/>
         <v>6.3307493540051676E-2</v>
       </c>
     </row>
@@ -2335,7 +2328,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="10">
-        <f>H19/$I$1</f>
+        <f t="shared" si="0"/>
         <v>6.3307493540051676E-2</v>
       </c>
     </row>
@@ -2365,7 +2358,7 @@
         <v>60</v>
       </c>
       <c r="I20" s="10">
-        <f>H20/$I$1</f>
+        <f t="shared" si="0"/>
         <v>3.875968992248062E-2</v>
       </c>
     </row>
@@ -2395,7 +2388,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="10">
-        <f>H21/$I$1</f>
+        <f t="shared" si="0"/>
         <v>3.875968992248062E-2</v>
       </c>
     </row>
@@ -2425,7 +2418,7 @@
         <v>60</v>
       </c>
       <c r="I22" s="10">
-        <f>H22/$I$1</f>
+        <f t="shared" si="0"/>
         <v>3.875968992248062E-2</v>
       </c>
     </row>
@@ -2455,7 +2448,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="10">
-        <f>H23/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.5503875968992248E-2</v>
       </c>
     </row>
@@ -2485,7 +2478,7 @@
         <v>24</v>
       </c>
       <c r="I24" s="10">
-        <f>H24/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.5503875968992248E-2</v>
       </c>
     </row>
@@ -2515,7 +2508,7 @@
         <v>24</v>
       </c>
       <c r="I25" s="10">
-        <f>H25/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.5503875968992248E-2</v>
       </c>
     </row>
@@ -2545,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="I26" s="10">
-        <f>H26/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.1963824289405683E-2</v>
       </c>
     </row>
@@ -2575,7 +2568,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="10">
-        <f>H27/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.1963824289405683E-2</v>
       </c>
     </row>
@@ -2605,7 +2598,7 @@
         <v>34</v>
       </c>
       <c r="I28" s="10">
-        <f>H28/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.1963824289405683E-2</v>
       </c>
     </row>
@@ -2635,7 +2628,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="10">
-        <f>H29/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.937984496124031E-2</v>
       </c>
     </row>
@@ -2665,7 +2658,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="10">
-        <f>H30/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.937984496124031E-2</v>
       </c>
     </row>
@@ -2695,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="10">
-        <f>H31/$I$1</f>
+        <f t="shared" si="0"/>
         <v>1.937984496124031E-2</v>
       </c>
     </row>
@@ -2725,7 +2718,7 @@
         <v>45</v>
       </c>
       <c r="I32" s="10">
-        <f>H32/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.9069767441860465E-2</v>
       </c>
     </row>
@@ -2755,7 +2748,7 @@
         <v>45</v>
       </c>
       <c r="I33" s="10">
-        <f>H33/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.9069767441860465E-2</v>
       </c>
     </row>
@@ -2785,8 +2778,13 @@
         <v>45</v>
       </c>
       <c r="I34" s="10">
-        <f>H34/$I$1</f>
+        <f t="shared" si="0"/>
         <v>2.9069767441860465E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2795,11 +2793,11 @@
       <sortCondition ref="G1:G35"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="G2:G34">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H2:H34">
-    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G34">
-    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
